--- a/Lab Tests.xlsx
+++ b/Lab Tests.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/naraboina-sneha_naraboina-sneha_capgemini_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="554" documentId="14_{11F09872-9427-4B9E-B4EE-1683D8976289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87E333EC-5C1E-4820-9A77-E45FBD08DF36}"/>
+  <xr:revisionPtr revIDLastSave="1002" documentId="14_{11F09872-9427-4B9E-B4EE-1683D8976289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E71C924-78F0-47F6-B648-B00BD2305EF3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{D82DCDD8-C949-430A-8A33-57C3CA6828FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{D82DCDD8-C949-430A-8A33-57C3CA6828FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="User Story" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Scenarios" sheetId="2" r:id="rId2"/>
-    <sheet name="TestCases" sheetId="3" r:id="rId3"/>
-    <sheet name="Defect Report" sheetId="4" r:id="rId4"/>
-    <sheet name="RTM" sheetId="5" r:id="rId5"/>
-    <sheet name="Summary" sheetId="6" r:id="rId6"/>
+    <sheet name="AUT_participants_modules" sheetId="7" r:id="rId1"/>
+    <sheet name="User Story" sheetId="1" r:id="rId2"/>
+    <sheet name="Test Scenarios" sheetId="2" r:id="rId3"/>
+    <sheet name="TestCases" sheetId="3" r:id="rId4"/>
+    <sheet name="Defect Report" sheetId="4" r:id="rId5"/>
+    <sheet name="RTM" sheetId="5" r:id="rId6"/>
+    <sheet name="Summary" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,56 +42,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="235">
-  <si>
-    <t>Issue Type</t>
-  </si>
-  <si>
-    <t>Summary(Apollo 24/7)</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Epic 1</t>
-  </si>
-  <si>
-    <t>Sub Story 1</t>
-  </si>
-  <si>
-    <t>Sub Story 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I want to add test to the cart, so that I can view in cart</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I want Verify pop-up with "View Details",so that I can proceed with cart</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="332">
   <si>
     <t>High</t>
   </si>
   <si>
-    <t>I want to click on “View All” under  “Top Booked Tests”,so that I can view all Top Booked Tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I want to click on "Price: Low to High" in "Sort By " dropdown, so that I can view  all tests which have price low to high</t>
-  </si>
-  <si>
-    <t>Test Scenario ID</t>
-  </si>
-  <si>
-    <t>Requirement ID</t>
-  </si>
-  <si>
     <t>Test Scenario Description</t>
   </si>
   <si>
-    <t>Type of Testing</t>
-  </si>
-  <si>
-    <t>Test Case Details</t>
-  </si>
-  <si>
     <t>TS_Apollo 24/7_Lab Tests_01</t>
   </si>
   <si>
@@ -100,9 +59,6 @@
     <t>Functional Testing</t>
   </si>
   <si>
-    <t>Possible No.  Of  Test Cases</t>
-  </si>
-  <si>
     <t>Test Case ID</t>
   </si>
   <si>
@@ -139,30 +95,9 @@
     <t>As a user, I want to view all lab tests, so that I can choose the right one.</t>
   </si>
   <si>
-    <t>Lab Tests Functionality</t>
-  </si>
-  <si>
-    <t>I want to click on Lab Tests from homepage, so that I can view all Lab Tests</t>
-  </si>
-  <si>
-    <t>Story 2</t>
-  </si>
-  <si>
     <t>As a user, I want to sort and filter tests so that I can find affordable options.</t>
   </si>
   <si>
-    <t>I want to Apply filters for "Top Deals", "Tests" and "Packages,so that I can view tests</t>
-  </si>
-  <si>
-    <t>Story 3</t>
-  </si>
-  <si>
-    <t>As a user, I want to add tests to my cart, so that I can proceed to cart</t>
-  </si>
-  <si>
-    <t>Story 1</t>
-  </si>
-  <si>
     <t>TS_Apollo 24/7_Lab Tests_02</t>
   </si>
   <si>
@@ -175,9 +110,6 @@
     <t>TS_Apollo 24/7_Lab Tests_05</t>
   </si>
   <si>
-    <t>TS_Apollo 24/7_Lab Tests_06</t>
-  </si>
-  <si>
     <t>REQ_Apollo 24/7_Lab Tests_02</t>
   </si>
   <si>
@@ -193,42 +125,6 @@
     <t>REQ_Apollo 24/7_Lab Tests_06</t>
   </si>
   <si>
-    <t>To verify Navigation to Lab Tests page</t>
-  </si>
-  <si>
-    <t>To verify "View All" under "Top Booked Tests"</t>
-  </si>
-  <si>
-    <t>To verify sorting by "Price:Low to High"</t>
-  </si>
-  <si>
-    <t>To verify filters can be appilied and persist</t>
-  </si>
-  <si>
-    <t>To verify  adding a test to the cart</t>
-  </si>
-  <si>
-    <t>To verify pop-up with "View Details" after adding to cart</t>
-  </si>
-  <si>
-    <t>1.Validate Lab Tests link                                              2.Validate page load</t>
-  </si>
-  <si>
-    <t>1.Validate "View All" button                                           2.Validate list display</t>
-  </si>
-  <si>
-    <t>1.Validate "Sort By" dropdown                                 2.Validate "Price: Low to High"                                 3.Validate sorting applied</t>
-  </si>
-  <si>
-    <t>1.Validate "Top Deals" filter                                       2.Validate "Tests" filter                                                 3.Validate "Packages" filter                                       4.Validate persistence</t>
-  </si>
-  <si>
-    <t>1.Validate "Add" button                                                2.Validate cart update                                                  3.Validate item in cart</t>
-  </si>
-  <si>
-    <t>1.Validate pop-up appears                                         2.Validate " View Details" button                                 3.Validate navigation from pop-up</t>
-  </si>
-  <si>
     <t>TS_Apollo24/7_Lab Tests_02</t>
   </si>
   <si>
@@ -239,9 +135,6 @@
   </si>
   <si>
     <t>TS_Apollo24/7_Lab Tests_05</t>
-  </si>
-  <si>
-    <t>TS_Apollo24/7_Lab Tests_06</t>
   </si>
   <si>
     <t xml:space="preserve"> Validate Lab Tests  link</t>
@@ -747,13 +640,522 @@
   </si>
   <si>
     <t>click Price :Low to High</t>
+  </si>
+  <si>
+    <t>To verify navigation from Homepage to Lab Tests and validate page load and “View All” button functionality.</t>
+  </si>
+  <si>
+    <t>To verify list display and sorting functionality, including “Sort By” dropdown and applying “Price: Low to High” option.</t>
+  </si>
+  <si>
+    <t>To verify applying filters such as “Top Deals,” “Tests,” and “Packages,” and ensure all selected filters persist after application.</t>
+  </si>
+  <si>
+    <t>To verify adding a test to the cart, updating the cart count, and confirming the item is present in the cart.</t>
+  </si>
+  <si>
+    <t>To verify the pop-up appears after adding a test to the cart, validate the “View Details” button, and confirm navigation to the details page from the pop-up.</t>
+  </si>
+  <si>
+    <t>Batch:</t>
+  </si>
+  <si>
+    <t>Sprint Date:</t>
+  </si>
+  <si>
+    <t>Application Under Test:</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Associates Name</t>
+  </si>
+  <si>
+    <t>Module undet test</t>
+  </si>
+  <si>
+    <t>Jobs page</t>
+  </si>
+  <si>
+    <t>Group Leader:</t>
+  </si>
+  <si>
+    <t>V &amp; V Testing Banglore Aug 2025</t>
+  </si>
+  <si>
+    <t>6th Nov 2025 - 18th Nov 2025</t>
+  </si>
+  <si>
+    <t>Naraboina Sneha</t>
+  </si>
+  <si>
+    <t>Vemula Akhilarani</t>
+  </si>
+  <si>
+    <t>Koyyada Anvitha</t>
+  </si>
+  <si>
+    <t>J Sai Priya</t>
+  </si>
+  <si>
+    <t>Mogilipuri Varshitha</t>
+  </si>
+  <si>
+    <t>Shop By Category</t>
+  </si>
+  <si>
+    <t>Circle Membership</t>
+  </si>
+  <si>
+    <t>Buy Medicines</t>
+  </si>
+  <si>
+    <t>Find Doctors</t>
+  </si>
+  <si>
+    <t>BR_Apollo24/7_ShopByCategory_01</t>
+  </si>
+  <si>
+    <t>BR_Apollo24/7_CircleMembership_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application Under Test: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module: </t>
+  </si>
+  <si>
+    <t>Apolo24/7</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>User story Id</t>
+  </si>
+  <si>
+    <t>Acceptance criteria</t>
+  </si>
+  <si>
+    <t>Epic_01
+Lab Tests Functionality</t>
+  </si>
+  <si>
+    <t>1.The user should be able to click on Lab Tests from the homepage.
+2.The system should display a page listing all available lab tests.
+3.The user should be able to navigate to Top Booked Tests and click View All.
+4.The page should load completely with all expected elements visible.</t>
+  </si>
+  <si>
+    <t>1.The user should be able to access the Sort By dropdown on the Lab Tests page.
+2.The user should be able to select Price: Low to High and see tests sorted accordingly.
+3.The user should be able to apply filters like Top Deals, Tests, and Packages, and the filters should persist.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to add tests to my cart and proceed to checkout so that I can complete my booking easily.</t>
+  </si>
+  <si>
+    <t>1.The user should be able to click on the Add button for any test.
+2.The system should update the cart count immediately after adding a test.
+3.The user should be able to view the added test in the cart and proceed to checkout.</t>
+  </si>
+  <si>
+    <t>US_Apollo24/7_LabTests_01</t>
+  </si>
+  <si>
+    <t>US_Apollo24/7_LabTests_02</t>
+  </si>
+  <si>
+    <t>US_Apollo24/7_LabTests_03</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Test Requirement Id</t>
+  </si>
+  <si>
+    <t>Test Scenario Id</t>
+  </si>
+  <si>
+    <t>TS_1</t>
+  </si>
+  <si>
+    <t>TS_2</t>
+  </si>
+  <si>
+    <t>TS_3</t>
+  </si>
+  <si>
+    <t>TS_4</t>
+  </si>
+  <si>
+    <t>TS_5</t>
+  </si>
+  <si>
+    <t>Lab Tests and View All Functionality</t>
+  </si>
+  <si>
+    <t>Sort By Functionality</t>
+  </si>
+  <si>
+    <t>Filters Functionality</t>
+  </si>
+  <si>
+    <t>Cart Functionality</t>
+  </si>
+  <si>
+    <t>View Details Functionality</t>
+  </si>
+  <si>
+    <t>TR_Apollo 24/7_Lab Tests_01</t>
+  </si>
+  <si>
+    <t>TR_Apollo 24/7_Lab Tests_02</t>
+  </si>
+  <si>
+    <t>TR_Apollo 24/7_Lab Tests_03</t>
+  </si>
+  <si>
+    <t>TR_Apollo 24/7_Lab Tests_04</t>
+  </si>
+  <si>
+    <t>TR_Apollo 24/7_Lab Tests_05</t>
+  </si>
+  <si>
+    <t>BR_Apollo24/7_FindDoctors_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  BR_Apollo24/7_BuyMedicines_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective </t>
+  </si>
+  <si>
+    <t>Pre condition</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Post condition</t>
+  </si>
+  <si>
+    <t>Test Type</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Remark/Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.User is logged into their LinkedIn account.
+2.The user is present in "Jobs" section.
+</t>
+  </si>
+  <si>
+    <t>The user interface remains responsive, allowing the user to interact with the displayed job listings</t>
+  </si>
+  <si>
+    <t>Test when skills are entered in the search bar and relevant job postings matching the skills are displayed.
+Given: User is on the LinkedIn job search bar in Jobs section.
+When: User enters skills in the search bar.
+Then: Relevant job postings matching skills are displayed.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the LinkedIn job search bar located in Jobs section.
+2.Enter skills in the search bar.
+3.User clicks "Search".
+4.Relevant job postings matching skills are displayed.</t>
+  </si>
+  <si>
+    <t>Skills: java</t>
+  </si>
+  <si>
+    <t>Relevant job postings matching the skills are displayed.</t>
+  </si>
+  <si>
+    <t>Test when company name is entered in the search bar and relevant job postings matching the job title are displayed.
+Given: User is on the LinkedIn job search bar in Jobs section.
+When: User enters company name in the search bar.
+Then: Relevant job postings matching the company name are displayed.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the LinkedIn job search bar located in Jobs section.
+2.Enter company name in the search bar.
+3.User clicks "Search".
+4.Relevant job postings matching company name are displayed.</t>
+  </si>
+  <si>
+    <t>Company name:capgemini</t>
+  </si>
+  <si>
+    <t>Relevant job postings matching the company name are displayed.</t>
+  </si>
+  <si>
+    <t>Test when location is entered in the location bar and relevant job postings in the given location are displayed.
+Given: User is on the LinkedIn job search bar in Jobs section.
+When: User enters location in the search bar.
+Then: Relevant job postings int the given location are displayed.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the LinkedIn job search bar located in Jobs section.
+2.Enter location in the location bar.
+3.User clicks "Search".
+4.Relevant job postings int the given location are displayed.</t>
+  </si>
+  <si>
+    <t>Relevant job postings int the given location are displayed.</t>
+  </si>
+  <si>
+    <t>Test for Incomplete Filtering by Location.
+Given:The user is on the LinkedIn job search bar in the Jobs section.
+When:The user enters a specific location on LinkedIn in the location bar.
+Then:  The system displays job listings from various locations instead of filtering them based on the entered location.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the LinkedIn job search bar located in Jobs section.
+2.Enter location in the location bar.
+3.User clicks "Search".
+4. The system displays job listings from various locations instead of filtering them based on the entered location.</t>
+  </si>
+  <si>
+    <t>Location:ballarpur</t>
+  </si>
+  <si>
+    <t>Jobs from various locations are displayed instead of relevant jobs.</t>
+  </si>
+  <si>
+    <t>Test when user enters misspelled keywords in search bar.
+Given: User is on the LinkedIn job search bar in Jobs section.
+When: User enters misspelled keywords in search bar.
+Then: System automatically detect the misspelling and suggest the corrected keyword.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the LinkedIn job search bar located in Jobs section.
+2.Enter misspelled keywords in the search bar.
+3.User clicks "Search".
+4.Relevant job postings matching job title are displayed.</t>
+  </si>
+  <si>
+    <t>Misspelled keywords:softwre</t>
+  </si>
+  <si>
+    <t>System suggests the corrected keywords</t>
+  </si>
+  <si>
+    <t>The user interface remains responsive, allowing the user to interact with "Jobs" section.</t>
+  </si>
+  <si>
+    <t>Test when user enters misspelled location in location bar.
+Given: User is on the LinkedIn job location bar in Jobs section.
+When: User enters misspelled location in location bar.
+Then: System automatically detect the misspelling and displays a message "Please enter a valid location".</t>
+  </si>
+  <si>
+    <t>1.Navigate to the LinkedIn job search bar located in Jobs section.
+2.Enter misspelled location in the location bar.
+3.The system displays a message "Please enter a valid location".</t>
+  </si>
+  <si>
+    <t>Misspelled location:00000</t>
+  </si>
+  <si>
+    <t>The system displays a message "Please enter a valid location".</t>
+  </si>
+  <si>
+    <t>Test when user enters mispelled keywords in search bar and ignores auto suggestions.
+Given: User is on the LinkedIn job search bar in Jobs section.
+When: User enters misspelled keywords in search bar and ignores auto suggestions.
+Then: System intelligently interpret the misspelled keyword and provide relevant job postings.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the LinkedIn job search bar located in Jobs section.
+2.Enter misspelled location in the location bar.
+3.User clicks "Search".
+4.System intelligently interpret the misspelled keyword.
+5.Provides results for corrected keyword.</t>
+  </si>
+  <si>
+    <t>System intelligently interpret the misspelled keyword and provide relevant job postings.</t>
+  </si>
+  <si>
+    <t>Test when user leaves both search and location fields empty.
+Given: User is on the LinkedIn job search bar/location field in Jobs section.
+When: Both the search and location fields are left empty by the user.
+Then: System displays list of job postings from various locations and industries without applying any specific search filters.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the LinkedIn job search bar located in Jobs section.
+2.Search and location fields are left empty.
+3.User clicks "Search".
+4.System displays list of job postings from various locations and industries without applying any specific search filters.</t>
+  </si>
+  <si>
+    <t>System displays list of job postings from various locations and industries without applying any specific search filters.</t>
+  </si>
+  <si>
+    <t>Test when user filter results by location.
+Given: User is on the LinkedIn job search bar/location field in Jobs section.
+When: User applies a filter by location, selecting a specific city or region.
+Then: Job listings are updated to display only those available in the selected location.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the LinkedIn job search bar located in Jobs section.
+2.User searches for job posting.
+3.User selects location filter.
+4.Job listings are updated to display only those available in the selected location.</t>
+  </si>
+  <si>
+    <t>Job location:pune</t>
+  </si>
+  <si>
+    <t>Job listings are updated to display only those available in the selected location.</t>
+  </si>
+  <si>
+    <t>Test when user filter results by experience level.
+Given: User is on the LinkedIn job search bar/location field in Jobs section.
+When: User chooses a specific experience level.
+Then: The system updates the displayed job listings to show only those suitable for candidates with the selected experience level.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the LinkedIn job search bar located in Jobs section.
+2.User searches for job posting.
+3.User chooses a specific experience level.
+4.Job listings are updated to display only those available in the selected experience level.</t>
+  </si>
+  <si>
+    <t>Experience level:senior</t>
+  </si>
+  <si>
+    <t>Job listings are updated to display only those available in the selected experience level.</t>
+  </si>
+  <si>
+    <t>Test when user randomly selects filters from the available options.
+Given:User is on the LinkedIn job search bar in Jobs section.
+When:User randomly selects filters from the available options and applies it.
+Then: The system displays "No matching Jobs found".</t>
+  </si>
+  <si>
+    <t>1.Navigate to the LinkedIn job search bar located in Jobs section.
+2.User applies random filters from available options.
+3.System automatically updates results.
+4.System shows zero results.
+5.User clicks on "zero results found" option.
+6.System displays "No matching jobs found'.</t>
+  </si>
+  <si>
+    <t>Combination of filter options</t>
+  </si>
+  <si>
+    <t>The system displays "No matching Jobs found"</t>
+  </si>
+  <si>
+    <t>Test when no results found for selected filters.
+Given: User is on the LinkedIn job search bar in Jobs section.
+When:User applies filters that are too restrictive or specific.
+Then:The system displays "No matching Jobs found"</t>
+  </si>
+  <si>
+    <t>1.Navigate to the LinkedIn job search bar located in Jobs section.
+2.User applies filters that are too restrictive or specific.
+3.System automatically updates results.
+4.System shows zero results.
+5.User clicks on "zero results found" option.
+6.System displays "No matching jobs found'.</t>
+  </si>
+  <si>
+    <t>Restrictive filter options</t>
+  </si>
+  <si>
+    <t>Test when user can access personalized recommendations
+Given: User is logged into their LinkedIn account and is in jobs section.
+When:User can access personalized recommendations.
+Then:The system displays all the recommendated jobs in "Recommended for you" section.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the LinkedIn Jobs section.
+2.User can see "Recommended for you" section.
+3.All the recommended jobs are displayed in that section.</t>
+  </si>
+  <si>
+    <t>"Recommended for you" section displays all the recommended jobs.</t>
+  </si>
+  <si>
+    <t>The user interface remains responsive, allowing the user to interact with the displayed job listings.</t>
+  </si>
+  <si>
+    <t>Test when user can access "My Jobs" section on a click.
+Given:User is logged into their LinkedIn account and is in jobs section.
+When: User can access "My Jobs" section on a click.
+Then: User can see saved items in "My Items".</t>
+  </si>
+  <si>
+    <t>1.Navigate to the LinkedIn Jobs section.
+2.User can see "My Jobs" section.
+3.User clicks on "My Jobs" section
+4.The user is successfully directed to the "My Items" section.
+5.User can access their saved, applied, and archived job postings.</t>
+  </si>
+  <si>
+    <t>User is directed to "My Items" where they can access their saved,applied and archived job postings.</t>
+  </si>
+  <si>
+    <t>The user interface remains responsive, allowing the user to interact with "My Jobs" section.</t>
+  </si>
+  <si>
+    <t>US_ID</t>
+  </si>
+  <si>
+    <t>Test when user clicks on the Lab Tests link from the homepage and navigates successfully to the Lab Tests page.
+Given: The user is on the Apollo 24/7 homepage.
+When: The user clicks on the Lab Tests link in the navigation menu.
+Then: The Lab Tests page should load successfully, displaying all expected elements.</t>
+  </si>
+  <si>
+    <t>Test when the Lab Tests page loads completely after navigation from the homepage.
+Given: The user has clicked on the Lab Tests link from the Apollo 24/7 homepage.
+When: The Lab Tests page starts loading.
+Then: All expected elements on the Lab Tests page should be displayed correctly and the page should load without errors.</t>
+  </si>
+  <si>
+    <t>Test when the user clicks on the “View All” button under Top Booked Tests and navigates successfully to the full list of tests.
+Given: The user is on the Lab Tests page of Apollo 24/7.
+When: The user clicks on the “View All” button under the Top Booked Tests section.
+Then: The system should display the full list of Top Booked Tests on a new page without errors.</t>
+  </si>
+  <si>
+    <t>1.The Apollo24/7 application is launched successfully.
+2.The homepage of Apollo24/7 is displayed on the screen.</t>
+  </si>
+  <si>
+    <t>1The user has successfully clicked on the Lab Tests link from the Apollo24/7 homepage.
+2.The Lab Tests page is fully loaded and visible on the screen with all expected elements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open Apollo24/7 Homepage in browser                       2.click on Lab Tests option            3.Verify Lab Tests page is displayed        </t>
+  </si>
+  <si>
+    <t>https://www.apollo247.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+All the test steps were successfully executed, and the expected results were achieved.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,8 +1218,68 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,12 +1289,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,8 +1310,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor rgb="FF9FC5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -878,12 +1352,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -901,22 +1469,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,18 +1479,135 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1273,151 +1943,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FFE949-D242-4498-9335-82747897356A}">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC8435C-D35E-4606-B6EA-59F4FA0DF6C3}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="65.36328125" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" customWidth="1"/>
+    <col min="4" max="4" width="34.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="23">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="B6" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="B7" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="23">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="B8" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="23">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="B9" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="23">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="B10" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1425,769 +2089,1706 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C366600-75DE-41B5-B558-757C305DF956}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FFE949-D242-4498-9335-82747897356A}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B5" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="32.08984375" customWidth="1"/>
-    <col min="3" max="3" width="40.453125" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" customWidth="1"/>
-    <col min="5" max="5" width="22.90625" customWidth="1"/>
-    <col min="6" max="6" width="36.6328125" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="65.36328125" customWidth="1"/>
+    <col min="4" max="4" width="35.08984375" customWidth="1"/>
+    <col min="5" max="5" width="33.54296875" customWidth="1"/>
+    <col min="9" max="9" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:5" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.4">
+      <c r="A1" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.4">
+      <c r="A2" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="29"/>
+      <c r="B4" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="152" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="29"/>
+      <c r="B5" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="E5" s="35" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="29"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="10">
-        <v>2</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="10">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="56.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="10">
-        <v>4</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10">
-        <v>3</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="10">
-        <v>3</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>61</v>
+      <c r="E6" s="35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="126.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:B7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E941D56D-DD08-4C26-90D5-A8177FA6DE44}">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C366600-75DE-41B5-B558-757C305DF956}">
+  <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="8" width="25.90625" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" customWidth="1"/>
-    <col min="10" max="10" width="31.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.90625" customWidth="1"/>
+    <col min="2" max="2" width="36.6328125" customWidth="1"/>
+    <col min="3" max="3" width="26.6328125" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" customWidth="1"/>
+    <col min="5" max="5" width="40.08984375" customWidth="1"/>
+    <col min="6" max="7" width="23.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+    </row>
+    <row r="3" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="37">
+        <v>1</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="37">
+        <v>2</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="44"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="37">
+        <v>3</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="44"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="37">
+        <v>1</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="37">
+        <v>2</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="37">
+        <v>3</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="45"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="37">
+        <v>4</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="45"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="37">
+        <v>1</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="37">
+        <v>2</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="45"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="37">
+        <v>3</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="45"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="37">
+        <v>4</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="45"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="37">
+        <v>1</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="E15" s="45" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="37">
+        <v>2</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="45"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="37">
+        <v>3</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="45"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="37">
+        <v>1</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E18" s="45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="37">
+        <v>2</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="45"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="37">
+        <v>3</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E941D56D-DD08-4C26-90D5-A8177FA6DE44}">
+  <dimension ref="A1:M51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="70" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.36328125" style="50" customWidth="1"/>
+    <col min="2" max="9" width="25.90625" customWidth="1"/>
+    <col min="10" max="10" width="19.26953125" customWidth="1"/>
+    <col min="11" max="11" width="31.7265625" customWidth="1"/>
+    <col min="12" max="12" width="17.90625" customWidth="1"/>
+    <col min="13" max="13" width="28.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" s="3" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" s="7" customFormat="1" ht="70.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="15" t="s">
+    </row>
+    <row r="5" spans="2:11" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="15" t="s">
+    </row>
+    <row r="7" spans="2:11" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="15" t="s">
+    </row>
+    <row r="10" spans="2:11" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" s="7" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="15" t="s">
+    </row>
+    <row r="14" spans="2:11" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" ht="70.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="7" t="s">
+    </row>
+    <row r="17" spans="2:13" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B32" s="50"/>
+      <c r="C32" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+    </row>
+    <row r="33" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B33" s="50"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="B34" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="F34" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="J34" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="K34" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="L34" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="M34" s="61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="203" x14ac:dyDescent="0.35">
+      <c r="A35" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="E35" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="F35" s="57" t="s">
+        <v>329</v>
+      </c>
+      <c r="G35" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="J35" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="L35" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="M35" s="60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="50" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="40"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="E36" s="58" t="s">
+        <v>328</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" s="55"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="L36" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="M36" s="60"/>
+    </row>
+    <row r="37" spans="1:13" ht="203" x14ac:dyDescent="0.35">
+      <c r="A37" s="40"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>326</v>
+      </c>
+      <c r="E37" s="58" t="s">
+        <v>328</v>
+      </c>
+      <c r="F37" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="J37" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="L37" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="M37" s="60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="145" x14ac:dyDescent="0.35">
+      <c r="A38" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="E38" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="F38" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="G38" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="H38" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="I38" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="J38" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="L38" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="M38" s="60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="40"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="E39" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="F39" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="G39" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="H39" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="I39" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="J39" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="L39" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="M39" s="60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="40"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="E40" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="F40" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="G40" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="H40" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="I40" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="J40" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="L40" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="M40" s="60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="174" x14ac:dyDescent="0.35">
+      <c r="A41" s="40"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="E41" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="F41" s="57" t="s">
+        <v>282</v>
+      </c>
+      <c r="G41" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="H41" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="I41" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="J41" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="L41" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="M41" s="60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="40"/>
+      <c r="B42" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="D42" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="E42" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="F42" s="57" t="s">
+        <v>286</v>
+      </c>
+      <c r="G42" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="H42" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="I42" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="J42" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="L42" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="M42" s="60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="174" x14ac:dyDescent="0.35">
+      <c r="A43" s="40"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="D43" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="E43" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="F43" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="G43" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="H43" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="I43" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="J43" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="L43" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="M43" s="60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="40"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="D44" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="E44" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="F44" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="G44" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="H44" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="I44" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="J44" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="L44" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="M44" s="60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="201.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="40"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="D45" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="E45" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="F45" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="G45" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="H45" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="I45" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="J45" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="L45" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="M45" s="60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="C46" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="D46" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="E46" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="F46" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="G46" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="H46" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="I46" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="J46" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="L46" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="M46" s="60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="174" x14ac:dyDescent="0.35">
+      <c r="A47" s="40"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="D47" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="F47" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="G47" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="H47" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="I47" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="J47" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="L47" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="M47" s="60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="192" x14ac:dyDescent="0.35">
+      <c r="A48" s="40"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="D48" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="E48" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="F48" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="G48" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="H48" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="I48" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="J48" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="L48" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="M48" s="60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="192" x14ac:dyDescent="0.35">
+      <c r="A49" s="40"/>
+      <c r="B49" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="D49" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="E49" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="F49" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="G49" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="H49" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="I49" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="J49" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="L49" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="M49" s="60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="40"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="D50" s="55" t="s">
+        <v>315</v>
+      </c>
+      <c r="E50" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="F50" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="G50" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="H50" s="55" t="s">
+        <v>317</v>
+      </c>
+      <c r="I50" s="55" t="s">
+        <v>318</v>
+      </c>
+      <c r="J50" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K50" s="55" t="s">
+        <v>317</v>
+      </c>
+      <c r="L50" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="M50" s="60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="192" x14ac:dyDescent="0.35">
+      <c r="A51" s="40"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="D51" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="E51" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="F51" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="G51" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="H51" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="I51" s="55" t="s">
+        <v>322</v>
+      </c>
+      <c r="J51" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="L51" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="7" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>49</v>
+      <c r="M51" s="60" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B49:B51"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{38F9CE70-3D05-48C0-B81B-DDC500671631}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{38F9CE70-3D05-48C0-B81B-DDC500671631}"/>
+    <hyperlink ref="G35" r:id="rId2" xr:uid="{AD98F8E6-726A-4455-B318-E5241605EADD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B84E12-0A51-4BF7-A01B-B5972C86B99B}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -2205,82 +3806,82 @@
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2301,12 +3902,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292E7FCF-6875-44F4-AA10-1AC1A008484D}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2317,296 +3918,296 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="3" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>208</v>
+      <c r="B16" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="3" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="3" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2635,7 +4236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6449AD6-9DD8-415C-9F34-314DE663935A}">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -2650,53 +4251,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="A1" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>218</v>
+      <c r="A2" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="C3" s="3">
         <v>17</v>
@@ -2722,7 +4323,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I7" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
